--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -195,7 +195,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="jibran" id="{F3760989-2260-DCAF-2585-348F12EC1D6E}" userId="jibran" providerId="Teamlab"/>
+  <person displayName="jibran" id="{2E778A45-CA93-F3C7-A7CE-1BDFCA1AA480}" userId="jibran" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -691,7 +691,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A16" dT="2025-01-31T15:59:25.33Z" personId="{F3760989-2260-DCAF-2585-348F12EC1D6E}" id="{F5AE6704-7052-CEC7-9A23-67CAFFA51029}" done="0">
+  <threadedComment ref="A16" dT="2025-01-31T15:59:25.33Z" personId="{2E778A45-CA93-F3C7-A7CE-1BDFCA1AA480}" id="{F5AE6704-7052-CEC7-9A23-67CAFFA51029}" done="0">
     <text xml:space="preserve">c
 </text>
   </threadedComment>
@@ -748,10 +748,6 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="e">
-        <f>WA(E$2:E$6,F$2:F$6)</f>
-        <v>#NAME?</v>
-      </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1" t="s">
